--- a/ЗАВОДЫ/ПОКОМ/UZ/2025/10,25/23,10,25 ПОКОМ КИ Ташкент/Ташкент 29,10.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/UZ/2025/10,25/23,10,25 ПОКОМ КИ Ташкент/Ташкент 29,10.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -393,7 +393,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
